--- a/static/metal.xlsx
+++ b/static/metal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Documents\python\Quantity-Survey\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1950" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="2550" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>name</t>
   </si>
@@ -38,12 +38,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>good quality</t>
-  </si>
-  <si>
-    <t>perfect condition</t>
-  </si>
-  <si>
     <t>curved sheets</t>
   </si>
   <si>
@@ -69,6 +63,33 @@
   </si>
   <si>
     <t>open sections</t>
+  </si>
+  <si>
+    <t>rust resistant</t>
+  </si>
+  <si>
+    <t>collect rain water</t>
+  </si>
+  <si>
+    <t>perfect for walk ways</t>
+  </si>
+  <si>
+    <t>sound proof</t>
+  </si>
+  <si>
+    <t>very durable</t>
+  </si>
+  <si>
+    <t>shock resistant</t>
+  </si>
+  <si>
+    <t>regulates temperature</t>
+  </si>
+  <si>
+    <t>great for insulation</t>
+  </si>
+  <si>
+    <t>perfect for pest control</t>
   </si>
 </sst>
 </file>
@@ -389,7 +410,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,7 +436,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -424,119 +445,119 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>39</v>
+        <v>1300</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>39</v>
+        <v>1200</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>39</v>
+        <v>1000</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>39</v>
+        <v>2400</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>39</v>
+        <v>1200</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>39</v>
+        <v>1100</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>2100</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
-      </c>
-      <c r="B9">
-        <v>39</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>39</v>
+        <v>900</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
